--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,36 +46,30 @@
     <t>forced</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -97,10 +91,13 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
@@ -112,88 +109,97 @@
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>need</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -670,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,31 +694,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>0.925</v>
+      </c>
+      <c r="L4">
+        <v>111</v>
+      </c>
+      <c r="M4">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L4">
-        <v>43</v>
-      </c>
-      <c r="M4">
-        <v>43</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6176470588235294</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,16 +797,16 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5789473684210527</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8664921465968587</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5675675675675675</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4656084656084656</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="D9">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4321705426356589</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C10">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.839622641509434</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4117647058823529</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3728813559322034</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8098591549295775</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3466666666666667</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2751677852348993</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,37 +1226,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1587301587301587</v>
+        <v>0.01715765619941729</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>212</v>
+        <v>3036</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,37 +1276,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06702412868632708</v>
+        <v>0.01368570080226522</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>348</v>
+        <v>2090</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,137 +1326,89 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01584734799482536</v>
+        <v>0.009223918575063612</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E17">
-        <v>0.23</v>
+        <v>0.66</v>
       </c>
       <c r="F17">
-        <v>0.77</v>
+        <v>0.34</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3043</v>
+        <v>3115</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L17">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>35</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.009882352941176471</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>0.46</v>
-      </c>
-      <c r="F18">
-        <v>0.54</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2104</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>31</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.007602153943617358</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>68</v>
-      </c>
-      <c r="E19">
-        <v>0.65</v>
-      </c>
-      <c r="F19">
-        <v>0.35</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3133</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1488,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.638235294117647</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L21">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1514,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6363636363636364</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1540,47 +1498,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6292517006802721</v>
+        <v>0.675</v>
       </c>
       <c r="L23">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.66</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1592,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6170212765957447</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1618,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1644,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.6108786610878661</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L27">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1670,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1696,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1722,47 +1680,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.550561797752809</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L31">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="M31">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1774,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.4523809523809524</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1800,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.392156862745098</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1831,16 +1789,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.3561643835616438</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1852,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.3333333333333333</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1878,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.06574394463667819</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1904,33 +1862,163 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>270</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40">
+        <v>0.02555555555555556</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
         <v>24</v>
       </c>
-      <c r="K37">
-        <v>0.01384954359458609</v>
-      </c>
-      <c r="L37">
-        <v>44</v>
-      </c>
-      <c r="M37">
-        <v>68</v>
-      </c>
-      <c r="N37">
-        <v>0.65</v>
-      </c>
-      <c r="O37">
-        <v>0.35</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>3133</v>
+      <c r="N40">
+        <v>0.96</v>
+      </c>
+      <c r="O40">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <v>0.01796973518284994</v>
+      </c>
+      <c r="L41">
+        <v>57</v>
+      </c>
+      <c r="M41">
+        <v>86</v>
+      </c>
+      <c r="N41">
+        <v>0.66</v>
+      </c>
+      <c r="O41">
+        <v>0.34</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>0.01135288552507096</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>53</v>
+      </c>
+      <c r="N42">
+        <v>0.45</v>
+      </c>
+      <c r="O42">
+        <v>0.55</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
